--- a/Basics-NOTES.xlsx
+++ b/Basics-NOTES.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\GO-Lang-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593B303-297F-47A1-98BC-8ECBB16B8424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FED8B-7EFE-4BA9-A4B6-A13462F4ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="891" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Struct-Slice-Pointer" sheetId="1" r:id="rId1"/>
-    <sheet name="method-fun" sheetId="2" r:id="rId2"/>
-    <sheet name="init-main-func" sheetId="3" r:id="rId3"/>
-    <sheet name="variadic-anonymous-func" sheetId="4" r:id="rId4"/>
-    <sheet name="struct" sheetId="5" r:id="rId5"/>
-    <sheet name="arrary" sheetId="6" r:id="rId6"/>
-    <sheet name="panic_recover" sheetId="7" r:id="rId7"/>
+    <sheet name="pointers" sheetId="10" r:id="rId1"/>
+    <sheet name="Struct-Slice-Pointer" sheetId="1" r:id="rId2"/>
+    <sheet name="method-fun" sheetId="2" r:id="rId3"/>
+    <sheet name="init-main-func" sheetId="3" r:id="rId4"/>
+    <sheet name="variadic-anonymous-func" sheetId="4" r:id="rId5"/>
+    <sheet name="struct" sheetId="5" r:id="rId6"/>
+    <sheet name="arrary" sheetId="6" r:id="rId7"/>
+    <sheet name="set_stack" sheetId="8" r:id="rId8"/>
+    <sheet name="build_install" sheetId="9" r:id="rId9"/>
+    <sheet name="panic_recover" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="329">
   <si>
     <t>// You can edit this code!</t>
   </si>
@@ -847,13 +850,5769 @@
   </si>
   <si>
     <t xml:space="preserve">    fmt.Println("Result:", result)</t>
+  </si>
+  <si>
+    <r>
+      <t>go build</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Compiles the source code and produces a binary executable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Output Location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The executable is created in the current directory or a specified directory but is not placed in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOPATH/bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOBIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> directories.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>No Installation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>go build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not install the binary. It simply compiles the code and outputs the executable where you specify (or in the current directory by default).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Useful during development when you want to quickly compile your code without installing it to your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> directory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>go install</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Compiles the source code and installs the resulting binary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Output Location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The executable is placed in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOPATH/bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOBIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> directory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Installation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>go install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not only compiles the code but also installs the binary in your system's binary path.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Useful when you're ready to install your package or application and make it available globally on your system.</t>
+    </r>
+  </si>
+  <si>
+    <t>go install main.go</t>
+  </si>
+  <si>
+    <t>Key Differences:</t>
+  </si>
+  <si>
+    <r>
+      <t>Location of Output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>go build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leaves the binary in the current directory, while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>go install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> places it in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOPATH/bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOBIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Global Availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Binaries installed with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>go install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be executed from anywhere in the system if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOPATH/bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$GOBIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is in your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>PATH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>  go build main.go</t>
+  </si>
+  <si>
+    <t>P:\0-SDE-Preperation\GO-LANG-practice\GO-LEARN\gin-swagger-example&gt;go env GOPATH</t>
+  </si>
+  <si>
+    <t>C:\Users\naush\go</t>
+  </si>
+  <si>
+    <r>
+      <t>package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fmt"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>struct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//type Set map[string]bool</t>
+    </r>
+  </si>
+  <si>
+    <t>// Add an element to the set</t>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>struct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{}{} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//true</t>
+    </r>
+  </si>
+  <si>
+    <t>// Remove an element from the set</t>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>// Check if an element is in the set</t>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Contains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exists</t>
+    </r>
+  </si>
+  <si>
+    <t>// Get the size of the set</t>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Create a new set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>make</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Add elements to the set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"apple"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"banana"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"orange"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Check if an element exists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Contains 'apple':"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Contains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"apple"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Output: true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Contains 'grape':"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Contains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"grape"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Output: false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Remove an element</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"banana"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Check the size of the set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Size:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">()) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Output: 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Iterate over the set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>Pointers in Go are a powerful feature that allows you to directly manipulate memory addresses and provide efficient ways to manage and pass around data. Here’s a breakdown of how pointers work in Go:</t>
+  </si>
+  <si>
+    <t>1. What is a Pointer?</t>
+  </si>
+  <si>
+    <t>A pointer is a variable that holds the memory address of another variable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Go, the type of a pointer to a variable of type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>*T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. For example, if you have a variable of type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the type of its pointer would be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>*int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Declaring Pointers</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// p is a pointer to an integer</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Getting the Memory Address</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// p now holds the address of x</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Dereferencing Pointers</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Outputs: 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Changes the value of x to 20</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Pointers and Functions</t>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Pass the address of x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Outputs: 11</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Pointer to a Pointer</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Outputs: 10</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Pointers and Struct as Recevier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"naushad"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@go.dev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>emailUpdateByRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateUserByRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>struct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>emailUpdateByRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"dev@go.dev"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateUserByRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ansari"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@go.dev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//{naushad test@go.dev}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//{naushad dev@go.dev}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//{Ansari test@go.dev}</t>
+    </r>
+  </si>
+  <si>
+    <t>8. Why Use Pointers?</t>
+  </si>
+  <si>
+    <r>
+      <t>Efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Passing large structs or arrays by pointer rather than by value avoids copying data, improving performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mutability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Pointers allow you to modify variables outside of their local scope, such as in function arguments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Structures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Pointers are essential for implementing data structures like linked lists, trees, and graphs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>emailUpdateByValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateUserByValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ansari"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@go.dev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"naushad"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@go.dev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Ansari"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@go.dev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">usrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">usrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>usrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> []</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,8 +6659,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +6748,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +6868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1063,9 +6912,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,11 +7252,1343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70124E34-1FEA-4BFF-89EF-253356BCBE51}">
+  <dimension ref="B2:R73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="5" spans="2:18" ht="18">
+      <c r="B5" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="10" spans="2:18" ht="18">
+      <c r="B10" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="2:18" ht="18">
+      <c r="B13" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="17" spans="2:7" ht="18">
+      <c r="B17" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="23" spans="2:7" ht="18">
+      <c r="B23" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="33"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="34" spans="2:8" ht="18">
+      <c r="B34" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="33"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="33"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="33"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="33"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="33"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="44"/>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="44"/>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="44"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="44"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="33"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="44"/>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="44"/>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="44"/>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+    </row>
+    <row r="61" spans="2:18" ht="18">
+      <c r="B61" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="67" spans="2:13" ht="18">
+      <c r="B67" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="30"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03A7F78-2F83-4A8A-9EC4-C8B2C704B8F0}">
+  <dimension ref="B2:P45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:16" ht="18">
+      <c r="B2" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="58.5" customHeight="1">
+      <c r="B3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="5" spans="2:16">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="31" spans="2:15">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="H32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="H33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="H34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="H35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="H36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B26:O29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2033,10 +9271,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4059296-D77A-44CD-9284-5FD9274090A7}">
   <dimension ref="A2:A7"/>
   <sheetViews>
@@ -2066,7 +9305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCCC4C9-6DE6-4313-8913-0F3144EE344E}">
   <dimension ref="A3:A7"/>
   <sheetViews>
@@ -2096,7 +9335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63447C7F-5102-4AA2-96ED-A526B85DD3D4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2110,11 +9349,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16831C0-BDBB-4EF2-9823-858D41BC2BBA}">
   <dimension ref="A2:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -2956,7 +10195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A86F20-302A-45F4-8181-F8ED646B9AC9}">
   <dimension ref="A1:V106"/>
   <sheetViews>
@@ -4374,550 +11613,1454 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03A7F78-2F83-4A8A-9EC4-C8B2C704B8F0}">
-  <dimension ref="B2:P45"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0067AE4F-D906-4CC0-B6BC-C7371931AE0D}">
+  <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="18">
-      <c r="B2" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="58.5" customHeight="1">
-      <c r="B3" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="5" spans="2:16">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="4"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="4"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="4"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="6"/>
+    <row r="2" spans="2:20">
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="M4" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="33"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="M6" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="33"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="M8" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="M10" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="M11" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="M12" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="33"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="M15" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="M16" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="M18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="33"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="M20" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="M21" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="M22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="M24" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="33"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="M25" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="M26" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="M27" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="M28" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="33"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="M30" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="M32" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="M33" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="33"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="M34" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="M35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="33"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="33"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="33"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="33"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1645951C-D435-4B6A-AE70-6F312CDC9E87}">
+  <dimension ref="B2:R34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="18">
+      <c r="B2" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="14" spans="2:18" ht="18">
+      <c r="B14" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B18" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="4"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B22" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="G24" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="24"/>
+      <c r="G25" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="B26" s="25"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="B27" s="25"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1"/>
+      <c r="B28" s="25"/>
+    </row>
+    <row r="30" spans="2:15" ht="18">
+      <c r="B30" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="3"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="4"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="6"/>
-      <c r="H32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="6"/>
-      <c r="H33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="6"/>
-      <c r="H34" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="6"/>
-      <c r="H35" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="6"/>
-      <c r="H36" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="6"/>
-      <c r="H37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
+      <c r="B32" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B26:O29"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>